--- a/data/horarios-de-nivelacion.xlsx
+++ b/data/horarios-de-nivelacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B4F4FD-79AE-4804-A847-B74DE153143B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3BCD76-6D2A-4C32-9F32-D8F63C99FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C6A9EBF-3221-4D9D-A208-CAFDA32A2193}"/>
   </bookViews>
@@ -367,12 +367,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}" name="Table1" displayName="Table1" ref="A1:L30" totalsRowShown="0">
   <autoFilter ref="A1:L30" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="LAB"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
+    <filterColumn colId="9">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -716,7 +711,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,7 +767,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -871,7 +866,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1328,7 +1323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>73</v>
       </c>
@@ -1358,7 +1353,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>77</v>
       </c>

--- a/data/horarios-de-nivelacion.xlsx
+++ b/data/horarios-de-nivelacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3BCD76-6D2A-4C32-9F32-D8F63C99FB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35176471-AB8B-4FD7-854F-716C0A34AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C6A9EBF-3221-4D9D-A208-CAFDA32A2193}"/>
   </bookViews>
@@ -318,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +328,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -344,9 +356,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -711,7 +725,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,30 +881,34 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2022</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2">
         <v>403</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J6" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1354,27 +1372,32 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="3">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3">
         <v>2012</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J26" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">

--- a/data/horarios-de-nivelacion.xlsx
+++ b/data/horarios-de-nivelacion.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35176471-AB8B-4FD7-854F-716C0A34AC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5337226-5A74-4500-BFF0-56C42835A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C6A9EBF-3221-4D9D-A208-CAFDA32A2193}"/>
   </bookViews>
@@ -313,7 +313,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -327,19 +327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,7 +381,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}" name="Table1" displayName="Table1" ref="A1:L30" totalsRowShown="0">
   <autoFilter ref="A1:L30" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}">
-    <filterColumn colId="9">
+    <filterColumn colId="10">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
@@ -406,9 +406,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Quotable">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Quotable">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -416,100 +416,48 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="212121"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="636363"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="00C6BB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="6FEBA0"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="B6DF5E"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="EFB251"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="EF755F"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="ED515C"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="8F8F8F"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Quotable">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -530,29 +478,47 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Viet" typeface="Tahoma"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Century Gothic" panose="020B0502020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Tahoma"/>
+        <a:font script="Hebr" typeface="Gisha"/>
+        <a:font script="Thai" typeface="DilleniaUPC"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Verdana"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Quotable">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -561,76 +527,52 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="90000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
+        <a:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:duotone>
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
+                <a:tint val="98000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="98000"/>
               </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+            </a:duotone>
+          </a:blip>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="15875" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="25400" cap="rnd" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -642,11 +584,11 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:innerShdw blurRad="63500" dist="25400" dir="13500000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="75000"/>
               </a:srgbClr>
-            </a:outerShdw>
+            </a:innerShdw>
           </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -654,35 +596,35 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
+                <a:tint val="84000"/>
+                <a:shade val="84000"/>
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="84000"/>
+                <a:shade val="90000"/>
                 <a:satMod val="120000"/>
+                <a:lumMod val="90000"/>
               </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -690,31 +632,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Quotable" id="{39EC5628-30ED-4578-ACD8-9820EDB8E15A}" vid="{6F3559E9-1A4C-49D8-94D4-F41003531C49}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,25 +647,25 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -781,37 +703,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>6</v>
       </c>
-      <c r="C2" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -834,7 +756,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -857,7 +779,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -880,170 +802,179 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>2022</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1">
         <v>403</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="3">
         <v>403</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="K7" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2">
         <v>403</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
         <v>2022</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>404</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>2018</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3">
         <v>404</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2">
         <v>308</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1066,7 +997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1083,7 +1014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1106,30 +1037,35 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>2018</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="3">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3">
         <v>308</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K15" t="s">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1152,7 +1088,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1175,35 +1111,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="1">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2">
         <v>307</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1226,7 +1162,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1249,7 +1185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1266,65 +1202,65 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1">
-        <v>4</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="B22" s="2">
+        <v>4</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2">
         <v>306</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="2">
         <v>6</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>2012</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>402</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1341,65 +1277,65 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="1">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="B25" s="2">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2">
         <v>2012</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="3">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="1">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1">
         <v>2012</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1422,35 +1358,35 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2018</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="B28" s="2">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2">
         <v>405</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>83</v>
       </c>
@@ -1473,28 +1409,33 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>3</v>
       </c>
-      <c r="C30">
-        <v>2018</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C30" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K30" t="s">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="L30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/horarios-de-nivelacion.xlsx
+++ b/data/horarios-de-nivelacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5337226-5A74-4500-BFF0-56C42835A091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E662F1E-0A32-46DF-83C3-679E667666B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C6A9EBF-3221-4D9D-A208-CAFDA32A2193}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
     <t>ASIGNATURAS</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>17:00-19:15</t>
+  </si>
+  <si>
+    <t>ANCAYA CORTEZ, EMILIO AGUSTÍN</t>
+  </si>
+  <si>
+    <t>16:00-18:15</t>
+  </si>
+  <si>
+    <t>OROSCO GUADALUPE, ROGER FERNANDO</t>
+  </si>
+  <si>
+    <t>15:00-17:15</t>
   </si>
 </sst>
 </file>
@@ -318,7 +330,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,6 +355,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -356,11 +374,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,13 +399,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}" name="Table1" displayName="Table1" ref="A1:L30" totalsRowShown="0">
-  <autoFilter ref="A1:L30" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}">
-    <filterColumn colId="10">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L30" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B6934027-9FF7-456C-84D4-4BEA32C2C935}" name="ASIGNATURAS"/>
     <tableColumn id="2" xr3:uid="{EAD2BA29-2BD4-4B48-B0D5-AF42B0600274}" name="HORAS"/>
@@ -647,7 +660,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -703,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -733,7 +746,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -756,7 +769,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -779,7 +792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -802,7 +815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -862,7 +875,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -890,7 +903,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -946,7 +959,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -974,7 +987,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -997,24 +1010,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>2018</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4">
+        <v>308</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1065,7 +1089,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
@@ -1088,7 +1112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1111,7 +1135,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>57</v>
       </c>
@@ -1139,7 +1163,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -1162,7 +1186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1185,24 +1209,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>3</v>
       </c>
-      <c r="C21">
-        <v>2018</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="C21" s="4">
+        <v>2018</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
@@ -1260,7 +1295,7 @@
       </c>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1277,7 +1312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -1307,7 +1342,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -1335,7 +1370,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>79</v>
       </c>
@@ -1358,7 +1393,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>82</v>
       </c>
@@ -1386,7 +1421,7 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>83</v>
       </c>

--- a/data/horarios-de-nivelacion.xlsx
+++ b/data/horarios-de-nivelacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E662F1E-0A32-46DF-83C3-679E667666B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B971C7-609E-436C-9CDB-1441CDF268AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C6A9EBF-3221-4D9D-A208-CAFDA32A2193}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C6A9EBF-3221-4D9D-A208-CAFDA32A2193}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>ASIGNATURAS</t>
   </si>
@@ -176,9 +176,6 @@
     <t>DERECHO TRIBUTARIO III</t>
   </si>
   <si>
-    <t>SIN DOCENTE</t>
-  </si>
-  <si>
     <t>FINANZAS CORPORATIVAS</t>
   </si>
   <si>
@@ -315,6 +312,12 @@
   </si>
   <si>
     <t>15:00-17:15</t>
+  </si>
+  <si>
+    <t>MEJIA CAYOTOPA JOSE</t>
+  </si>
+  <si>
+    <t>14:00-17:00</t>
   </si>
 </sst>
 </file>
@@ -330,7 +333,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -374,12 +383,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,7 +409,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}" name="Table1" displayName="Table1" ref="A1:L30" totalsRowShown="0">
-  <autoFilter ref="A1:L30" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}"/>
+  <autoFilter ref="A1:L30" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}">
+    <filterColumn colId="11">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B6934027-9FF7-456C-84D4-4BEA32C2C935}" name="ASIGNATURAS"/>
     <tableColumn id="2" xr3:uid="{EAD2BA29-2BD4-4B48-B0D5-AF42B0600274}" name="HORAS"/>
@@ -660,7 +676,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A24" sqref="A24:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -716,7 +732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -747,29 +763,34 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5">
         <v>314</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -792,7 +813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -815,7 +836,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -845,7 +866,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
@@ -875,7 +896,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -903,7 +924,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -931,7 +952,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -959,7 +980,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -987,7 +1008,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1010,7 +1031,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1027,43 +1048,48 @@
         <v>308</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="5">
+        <v>308</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>2018</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>308</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L14" t="s">
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="B15" s="3">
         <v>4</v>
@@ -1078,7 +1104,7 @@
         <v>308</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -1089,9 +1115,9 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1106,38 +1132,43 @@
         <v>308</v>
       </c>
       <c r="F16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
         <v>53</v>
       </c>
-      <c r="H16" t="s">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2018</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5">
+        <v>307</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>2018</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>307</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" t="s">
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="B18" s="2">
         <v>4</v>
@@ -1152,7 +1183,7 @@
         <v>307</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1163,9 +1194,9 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1180,15 +1211,15 @@
         <v>307</v>
       </c>
       <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
         <v>60</v>
       </c>
-      <c r="H19" t="s">
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>62</v>
       </c>
       <c r="B20">
         <v>4</v>
@@ -1200,18 +1231,18 @@
         <v>21</v>
       </c>
       <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
         <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>64</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4">
         <v>3</v>
@@ -1223,23 +1254,23 @@
         <v>21</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
@@ -1254,7 +1285,7 @@
         <v>306</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1265,9 +1296,9 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B23" s="2">
         <v>6</v>
@@ -1276,13 +1307,13 @@
         <v>2012</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2">
         <v>402</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1296,25 +1327,36 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2012</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>2012</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" s="5">
+        <v>307</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="B25" s="2">
         <v>4</v>
@@ -1326,25 +1368,25 @@
         <v>21</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1">
         <v>4</v>
@@ -1353,13 +1395,13 @@
         <v>2012</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1370,9 +1412,9 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1387,15 +1429,15 @@
         <v>405</v>
       </c>
       <c r="F27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" t="s">
         <v>80</v>
       </c>
-      <c r="G27" t="s">
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="B28" s="2">
         <v>4</v>
@@ -1410,7 +1452,7 @@
         <v>405</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1421,9 +1463,9 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1435,18 +1477,18 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
         <v>84</v>
       </c>
-      <c r="G29" t="s">
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -1455,20 +1497,20 @@
         <v>2018</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L30" s="3"/>
     </row>

--- a/data/horarios-de-nivelacion.xlsx
+++ b/data/horarios-de-nivelacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B971C7-609E-436C-9CDB-1441CDF268AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6552B0-0260-447A-95DB-6D0EFCB1FB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C6A9EBF-3221-4D9D-A208-CAFDA32A2193}"/>
   </bookViews>
@@ -324,7 +324,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,8 +332,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +376,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -383,13 +395,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,13 +423,10 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}" name="Table1" displayName="Table1" ref="A1:L30" totalsRowShown="0">
-  <autoFilter ref="A1:L30" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:L30" xr:uid="{FF52B38C-8F41-4091-B166-330453BF6856}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:L29">
+    <sortCondition ref="G1:G30"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{B6934027-9FF7-456C-84D4-4BEA32C2C935}" name="ASIGNATURAS"/>
     <tableColumn id="2" xr3:uid="{EAD2BA29-2BD4-4B48-B0D5-AF42B0600274}" name="HORAS"/>
@@ -676,7 +687,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:L24"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -732,7 +743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -790,53 +801,63 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
         <v>2022</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="3">
         <v>309</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>2018</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>309</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="6">
+        <v>405</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -866,37 +887,35 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="3">
-        <v>403</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>309</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -924,7 +943,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
@@ -952,7 +971,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
@@ -980,7 +999,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -1008,30 +1027,35 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>2018</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7">
+        <v>2018</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="7">
         <v>308</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -1087,7 +1111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
@@ -1115,28 +1139,33 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>2018</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16">
+      <c r="C16" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
         <v>308</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1166,7 +1195,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
@@ -1194,53 +1223,63 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>2</v>
       </c>
-      <c r="C19">
-        <v>2018</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="C19" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>307</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H19" t="s">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20">
-        <v>2018</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20" s="6">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>64</v>
       </c>
@@ -1268,7 +1307,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>65</v>
       </c>
@@ -1296,7 +1335,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
@@ -1354,7 +1393,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
@@ -1384,7 +1423,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
@@ -1412,30 +1451,37 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>2018</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>405</v>
-      </c>
-      <c r="F27" t="s">
-        <v>79</v>
-      </c>
-      <c r="G27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="3">
+        <v>403</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>81</v>
       </c>
@@ -1463,30 +1509,35 @@
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>2018</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B29" s="6">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
